--- a/random/results/sensitivity/gaps_benchmark/all5.xlsx
+++ b/random/results/sensitivity/gaps_benchmark/all5.xlsx
@@ -1,22 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="27715"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yongjis/Documents/GitHub/msp_models_for_adaptive_disaster_relief_logistics_planning/random/results/sensitivity/gaps_benchmark/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/local_ysong3/Documents/GitHub/msp_models_for_adaptive_disaster_relief_logistics_planning/random/results/sensitivity/gaps_benchmark/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B65BB2A-6663-0E43-8B5B-39CA6167341F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="600" windowWidth="30720" windowHeight="17240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2620" yWindow="9180" windowWidth="30720" windowHeight="17240"/>
   </bookViews>
   <sheets>
     <sheet name="all" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
@@ -33,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="5">
   <si>
     <t>CV-R</t>
   </si>
@@ -46,11 +51,17 @@
   <si>
     <t>static2SSP-R</t>
   </si>
+  <si>
+    <t>wait-and-see</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.0%"/>
+  </numFmts>
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -529,13 +540,14 @@
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="42" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="42" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -891,11 +903,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I52"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:D11"/>
+      <selection activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -904,7 +916,7 @@
     <col min="2" max="4" width="12.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -912,399 +924,443 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>3</v>
       </c>
       <c r="G1" t="s">
         <v>1</v>
       </c>
       <c r="H1" t="s">
+        <v>4</v>
+      </c>
+      <c r="I1" t="s">
         <v>2</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2">
-        <v>6446.1624940000002</v>
+        <v>6301.9963310000003</v>
       </c>
       <c r="B2">
-        <v>6557.0303089999998</v>
+        <v>6377.7896479999999</v>
       </c>
       <c r="C2">
-        <v>13605.798709999999</v>
+        <v>6395.5240489999996</v>
       </c>
       <c r="D2">
-        <v>12989.813410000001</v>
-      </c>
-      <c r="E2" s="3"/>
+        <v>8511.721254</v>
+      </c>
+      <c r="E2">
+        <v>22819.79292</v>
+      </c>
       <c r="F2" s="2">
         <v>0.05</v>
       </c>
-      <c r="G2" s="1">
+      <c r="G2" s="4">
         <f>(B2-$A2)/$A2</f>
-        <v>1.7199041306078439E-2</v>
-      </c>
-      <c r="H2" s="1">
-        <f t="shared" ref="H2:I2" si="0">(C2-$A2)/$A2</f>
-        <v>1.1106819324930284</v>
-      </c>
-      <c r="I2" s="1">
-        <f t="shared" si="0"/>
-        <v>1.0151234819306434</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+        <v>1.202687418702016E-2</v>
+      </c>
+      <c r="H2" s="4">
+        <f>(C2-$A2)/$A2</f>
+        <v>1.4840966748890251E-2</v>
+      </c>
+      <c r="I2" s="4">
+        <f>(D2-$A2)/$A2</f>
+        <v>0.35063887805364063</v>
+      </c>
+      <c r="J2" s="4">
+        <f>(E2-$A2)/$A2</f>
+        <v>2.621041924088038</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3">
-        <v>6585.5501160000003</v>
+        <v>6663.3840319999999</v>
       </c>
       <c r="B3">
-        <v>7305.9600440000004</v>
+        <v>7159.1757530000004</v>
       </c>
       <c r="C3">
-        <v>13774.23308</v>
+        <v>7528.6315869999999</v>
       </c>
       <c r="D3">
-        <v>13123.3387</v>
-      </c>
-      <c r="E3" s="3"/>
+        <v>8716.0863879999997</v>
+      </c>
+      <c r="E3">
+        <v>22938.59158</v>
+      </c>
       <c r="F3" s="2">
         <v>0.1</v>
       </c>
-      <c r="G3" s="1">
+      <c r="G3" s="4">
         <f>(B3-$A3)/$A3</f>
-        <v>0.1093925207933229</v>
-      </c>
-      <c r="H3" s="1">
-        <f t="shared" ref="H3:I3" si="1">(C3-$A3)/$A3</f>
-        <v>1.0915842773004871</v>
-      </c>
-      <c r="I3" s="1">
-        <f t="shared" si="1"/>
-        <v>0.9927475258469356</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+        <v>7.4405395009356792E-2</v>
+      </c>
+      <c r="H3" s="4">
+        <f>(C3-$A3)/$A3</f>
+        <v>0.12985107129422013</v>
+      </c>
+      <c r="I3" s="4">
+        <f>(D3-$A3)/$A3</f>
+        <v>0.30805703920743194</v>
+      </c>
+      <c r="J3" s="4">
+        <f>(E3-$A3)/$A3</f>
+        <v>2.4424837994989512</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4">
-        <v>6724.7604350000001</v>
+        <v>6885.9000150000002</v>
       </c>
       <c r="B4">
-        <v>7860.8605369999996</v>
+        <v>7712.2349869999998</v>
       </c>
       <c r="C4">
-        <v>13993.71394</v>
+        <v>8661.7391239999997</v>
       </c>
       <c r="D4">
-        <v>13256.85836</v>
-      </c>
-      <c r="E4" s="3"/>
+        <v>8920.4515210000009</v>
+      </c>
+      <c r="E4">
+        <v>23057.390240000001</v>
+      </c>
       <c r="F4" s="2">
         <v>0.15</v>
       </c>
-      <c r="G4" s="1">
-        <f t="shared" ref="G4:G11" si="2">(B4-$A4)/$A4</f>
-        <v>0.16894283640008945</v>
-      </c>
-      <c r="H4" s="1">
-        <f t="shared" ref="H4:H11" si="3">(C4-$A4)/$A4</f>
-        <v>1.0809237853541469</v>
-      </c>
-      <c r="I4" s="1">
-        <f t="shared" ref="I4:I11" si="4">(D4-$A4)/$A4</f>
-        <v>0.97135027903785842</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="G4" s="4">
+        <f t="shared" ref="G4:G11" si="0">(B4-$A4)/$A4</f>
+        <v>0.1200039167283784</v>
+      </c>
+      <c r="H4" s="4">
+        <f>(C4-$A4)/$A4</f>
+        <v>0.25789498905467328</v>
+      </c>
+      <c r="I4" s="4">
+        <f>(D4-$A4)/$A4</f>
+        <v>0.29546631545157581</v>
+      </c>
+      <c r="J4" s="4">
+        <f>(E4-$A4)/$A4</f>
+        <v>2.3484933254581972</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5">
-        <v>6863.9604490000002</v>
+        <v>7090.8903280000004</v>
       </c>
       <c r="B5">
-        <v>8306.7890470000002</v>
+        <v>8183.7728230000002</v>
       </c>
       <c r="C5">
-        <v>14184.641519999999</v>
+        <v>9794.8466609999996</v>
       </c>
       <c r="D5">
-        <v>13390.372369999999</v>
-      </c>
-      <c r="E5" s="3"/>
+        <v>9124.8166550000005</v>
+      </c>
+      <c r="E5">
+        <v>23176.188890000001</v>
+      </c>
       <c r="F5" s="2">
         <v>0.2</v>
       </c>
-      <c r="G5" s="1">
-        <f t="shared" si="2"/>
-        <v>0.21020351278542165</v>
-      </c>
-      <c r="H5" s="1">
-        <f t="shared" si="3"/>
-        <v>1.0665389355596502</v>
-      </c>
-      <c r="I5" s="1">
-        <f t="shared" si="4"/>
-        <v>0.95082306628832947</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="G5" s="4">
+        <f t="shared" si="0"/>
+        <v>0.15412486224536623</v>
+      </c>
+      <c r="H5" s="4">
+        <f>(C5-$A5)/$A5</f>
+        <v>0.38132818418059716</v>
+      </c>
+      <c r="I5" s="4">
+        <f>(D5-$A5)/$A5</f>
+        <v>0.28683652304825213</v>
+      </c>
+      <c r="J5" s="4">
+        <f>(E5-$A5)/$A5</f>
+        <v>2.2684455432181094</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6">
-        <v>7003.1598990000002</v>
+        <v>7295.2690009999997</v>
       </c>
       <c r="B6">
-        <v>8701.6650829999999</v>
+        <v>8598.2645190000003</v>
       </c>
       <c r="C6">
-        <v>14380.523380000001</v>
+        <v>10927.9542</v>
       </c>
       <c r="D6">
-        <v>13523.880730000001</v>
-      </c>
-      <c r="E6" s="3"/>
+        <v>9329.1817890000002</v>
+      </c>
+      <c r="E6">
+        <v>23294.987550000002</v>
+      </c>
       <c r="F6" s="2">
         <v>0.25</v>
       </c>
-      <c r="G6" s="1">
-        <f t="shared" si="2"/>
-        <v>0.24253411438492697</v>
-      </c>
-      <c r="H6" s="1">
-        <f t="shared" si="3"/>
-        <v>1.053433533918515</v>
-      </c>
-      <c r="I6" s="1">
-        <f t="shared" si="4"/>
-        <v>0.93111123050769007</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="G6" s="4">
+        <f t="shared" si="0"/>
+        <v>0.17860828953961702</v>
+      </c>
+      <c r="H6" s="4">
+        <f>(C6-$A6)/$A6</f>
+        <v>0.49795082244425115</v>
+      </c>
+      <c r="I6" s="4">
+        <f>(D6-$A6)/$A6</f>
+        <v>0.27879887468456638</v>
+      </c>
+      <c r="J6" s="4">
+        <f>(E6-$A6)/$A6</f>
+        <v>2.193163616969688</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7">
-        <v>7142.359348</v>
+        <v>7499.6341350000002</v>
       </c>
       <c r="B7">
-        <v>9089.8543109999991</v>
+        <v>8988.9785859999993</v>
       </c>
       <c r="C7">
-        <v>14548.94809</v>
+        <v>12061.061739999999</v>
       </c>
       <c r="D7">
-        <v>13657.383449999999</v>
-      </c>
-      <c r="E7" s="3"/>
+        <v>9533.5469229999999</v>
+      </c>
+      <c r="E7">
+        <v>23413.786209999998</v>
+      </c>
       <c r="F7" s="2">
         <v>0.3</v>
       </c>
-      <c r="G7" s="1">
-        <f t="shared" si="2"/>
-        <v>0.27266829742266269</v>
-      </c>
-      <c r="H7" s="1">
-        <f t="shared" si="3"/>
-        <v>1.036994693367534</v>
-      </c>
-      <c r="I7" s="1">
-        <f t="shared" si="4"/>
-        <v>0.91216694436192625</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="G7" s="4">
+        <f t="shared" si="0"/>
+        <v>0.19858894769937988</v>
+      </c>
+      <c r="H7" s="4">
+        <f>(C7-$A7)/$A7</f>
+        <v>0.60822001752222798</v>
+      </c>
+      <c r="I7" s="4">
+        <f>(D7-$A7)/$A7</f>
+        <v>0.27120160148985717</v>
+      </c>
+      <c r="J7" s="4">
+        <f>(E7-$A7)/$A7</f>
+        <v>2.1219904582718683</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8">
-        <v>7281.5587969999997</v>
+        <v>7703.9992689999999</v>
       </c>
       <c r="B8">
-        <v>9387.6064669999996</v>
+        <v>9366.2381389999991</v>
       </c>
       <c r="C8">
-        <v>14669.352790000001</v>
+        <v>13194.16927</v>
       </c>
       <c r="D8">
-        <v>13814.58236</v>
-      </c>
-      <c r="E8" s="3"/>
+        <v>9737.9120569999995</v>
+      </c>
+      <c r="E8">
+        <v>23532.584869999999</v>
+      </c>
       <c r="F8" s="2">
         <v>0.35</v>
       </c>
-      <c r="G8" s="1">
-        <f t="shared" si="2"/>
-        <v>0.28923033222882044</v>
-      </c>
-      <c r="H8" s="1">
-        <f t="shared" si="3"/>
-        <v>1.0145896227664564</v>
-      </c>
-      <c r="I8" s="1">
-        <f t="shared" si="4"/>
-        <v>0.89720123741795565</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="G8" s="4">
+        <f t="shared" si="0"/>
+        <v>0.21576311367118839</v>
+      </c>
+      <c r="H8" s="4">
+        <f>(C8-$A8)/$A8</f>
+        <v>0.71263895663799037</v>
+      </c>
+      <c r="I8" s="4">
+        <f>(D8-$A8)/$A8</f>
+        <v>0.26400739628626768</v>
+      </c>
+      <c r="J8" s="4">
+        <f>(E8-$A8)/$A8</f>
+        <v>2.0545933414989266</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9">
-        <v>7420.7582469999998</v>
+        <v>7908.3644020000002</v>
       </c>
       <c r="B9">
-        <v>9660.9423439999991</v>
+        <v>9670.3725030000005</v>
       </c>
       <c r="C9">
-        <v>14956.45702</v>
+        <v>14327.276809999999</v>
       </c>
       <c r="D9">
-        <v>13954.63298</v>
-      </c>
-      <c r="E9" s="3"/>
+        <v>9942.2771900000007</v>
+      </c>
+      <c r="E9">
+        <v>23651.383529999999</v>
+      </c>
       <c r="F9" s="2">
         <v>0.4</v>
       </c>
-      <c r="G9" s="1">
-        <f t="shared" si="2"/>
-        <v>0.30188075428890865</v>
-      </c>
-      <c r="H9" s="1">
-        <f t="shared" si="3"/>
-        <v>1.0154890541066295</v>
-      </c>
-      <c r="I9" s="1">
-        <f t="shared" si="4"/>
-        <v>0.88048613302305856</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="G9" s="4">
+        <f t="shared" si="0"/>
+        <v>0.22280309953274208</v>
+      </c>
+      <c r="H9" s="4">
+        <f>(C9-$A9)/$A9</f>
+        <v>0.81166118323741843</v>
+      </c>
+      <c r="I9" s="4">
+        <f>(D9-$A9)/$A9</f>
+        <v>0.25718501128825455</v>
+      </c>
+      <c r="J9" s="4">
+        <f>(E9-$A9)/$A9</f>
+        <v>1.9906795296406221</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10">
-        <v>7559.9576960000004</v>
+        <v>8112.7295359999998</v>
       </c>
       <c r="B10">
-        <v>9935.4102419999999</v>
+        <v>9950.084476</v>
       </c>
       <c r="C10">
-        <v>15002.07344</v>
+        <v>15460.38435</v>
       </c>
       <c r="D10">
-        <v>14092.94486</v>
-      </c>
-      <c r="E10" s="3"/>
+        <v>10146.642320000001</v>
+      </c>
+      <c r="E10">
+        <v>23770.18219</v>
+      </c>
       <c r="F10" s="2">
         <v>0.45</v>
       </c>
-      <c r="G10" s="1">
-        <f t="shared" si="2"/>
-        <v>0.31421505800976368</v>
-      </c>
-      <c r="H10" s="1">
-        <f t="shared" si="3"/>
-        <v>0.9844123529867963</v>
-      </c>
-      <c r="I10" s="1">
-        <f t="shared" si="4"/>
-        <v>0.86415657688886605</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="G10" s="4">
+        <f t="shared" si="0"/>
+        <v>0.22647802220532454</v>
+      </c>
+      <c r="H10" s="4">
+        <f>(C10-$A10)/$A10</f>
+        <v>0.90569453614779061</v>
+      </c>
+      <c r="I10" s="4">
+        <f>(D10-$A10)/$A10</f>
+        <v>0.25070634673257286</v>
+      </c>
+      <c r="J10" s="4">
+        <f>(E10-$A10)/$A10</f>
+        <v>1.9299857815449797</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11">
-        <v>7699.1571459999996</v>
+        <v>8317.0946700000004</v>
       </c>
       <c r="B11">
-        <v>10132.00937</v>
+        <v>10231.2765</v>
       </c>
       <c r="C11">
-        <v>15143.797769999999</v>
+        <v>16593.491890000001</v>
       </c>
       <c r="D11">
-        <v>14229.080120000001</v>
-      </c>
-      <c r="E11" s="3"/>
+        <v>10351.007460000001</v>
+      </c>
+      <c r="E11">
+        <v>23888.98085</v>
+      </c>
       <c r="F11" s="2">
         <v>0.5</v>
       </c>
-      <c r="G11" s="1">
-        <f t="shared" si="2"/>
-        <v>0.31598942298040483</v>
-      </c>
-      <c r="H11" s="1">
-        <f t="shared" si="3"/>
-        <v>0.96694228768505774</v>
-      </c>
-      <c r="I11" s="1">
-        <f t="shared" si="4"/>
-        <v>0.84813478283042198</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="G11" s="4">
+        <f t="shared" si="0"/>
+        <v>0.23015029958772845</v>
+      </c>
+      <c r="H11" s="4">
+        <f>(C11-$A11)/$A11</f>
+        <v>0.99510677085992583</v>
+      </c>
+      <c r="I11" s="4">
+        <f>(D11-$A11)/$A11</f>
+        <v>0.24454606695008321</v>
+      </c>
+      <c r="J11" s="4">
+        <f>(E11-$A11)/$A11</f>
+        <v>1.8722747302815057</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="E12" s="3"/>
       <c r="F12" s="2"/>
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="F13" s="2"/>
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="F14" s="2"/>
       <c r="G14" s="1"/>
-      <c r="H14" s="1"/>
-      <c r="I14" s="1"/>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="F15" s="2"/>
       <c r="G15" s="1"/>
-      <c r="H15" s="1"/>
-      <c r="I15" s="1"/>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="F16" s="2"/>
       <c r="G16" s="1"/>
-      <c r="H16" s="1"/>
-      <c r="I16" s="1"/>
     </row>
     <row r="17" spans="6:9" x14ac:dyDescent="0.2">
       <c r="F17" s="2"/>
       <c r="G17" s="1"/>
-      <c r="H17" s="1"/>
-      <c r="I17" s="1"/>
     </row>
     <row r="18" spans="6:9" x14ac:dyDescent="0.2">
       <c r="F18" s="2"/>
       <c r="G18" s="1"/>
-      <c r="H18" s="1"/>
-      <c r="I18" s="1"/>
     </row>
     <row r="19" spans="6:9" x14ac:dyDescent="0.2">
       <c r="F19" s="2"/>
       <c r="G19" s="1"/>
-      <c r="H19" s="1"/>
-      <c r="I19" s="1"/>
     </row>
     <row r="20" spans="6:9" x14ac:dyDescent="0.2">
       <c r="F20" s="2"/>
       <c r="G20" s="1"/>
-      <c r="H20" s="1"/>
-      <c r="I20" s="1"/>
     </row>
     <row r="21" spans="6:9" x14ac:dyDescent="0.2">
       <c r="F21" s="2"/>
       <c r="G21" s="1"/>
-      <c r="H21" s="1"/>
-      <c r="I21" s="1"/>
     </row>
     <row r="22" spans="6:9" x14ac:dyDescent="0.2">
       <c r="F22" s="2"/>
       <c r="G22" s="1"/>
-      <c r="H22" s="1"/>
-      <c r="I22" s="1"/>
     </row>
     <row r="23" spans="6:9" x14ac:dyDescent="0.2">
       <c r="F23" s="2"/>
       <c r="G23" s="1"/>
-      <c r="H23" s="1"/>
-      <c r="I23" s="1"/>
     </row>
     <row r="24" spans="6:9" x14ac:dyDescent="0.2">
       <c r="F24" s="2"/>
       <c r="G24" s="1"/>
-      <c r="H24" s="1"/>
-      <c r="I24" s="1"/>
     </row>
     <row r="25" spans="6:9" x14ac:dyDescent="0.2">
       <c r="F25" s="2"/>
